--- a/src/files/example.records.xlsx
+++ b/src/files/example.records.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -78,21 +78,6 @@
     <t>NAME_10</t>
   </si>
   <si>
-    <t>VALUE-01</t>
-  </si>
-  <si>
-    <t>VALUE-02</t>
-  </si>
-  <si>
-    <t>VALUE-03</t>
-  </si>
-  <si>
-    <t>VALUE-04</t>
-  </si>
-  <si>
-    <t>VALUE-05</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -103,13 +88,28 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>FIELD-02</t>
+  </si>
+  <si>
+    <t>FIELD-03</t>
+  </si>
+  <si>
+    <t>FIELD-04</t>
+  </si>
+  <si>
+    <t>FIELD-05</t>
+  </si>
+  <si>
+    <t>FIELD-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +120,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,14 +159,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -447,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H16"/>
     </sheetView>
   </sheetViews>
@@ -455,28 +474,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -484,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -504,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -527,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -553,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -570,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -596,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -622,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -639,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -662,7 +681,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -688,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -714,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -740,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -766,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -780,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -806,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -834,7 +853,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -843,10 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,7 +1148,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>